--- a/version_oct_2023/InitialValues.xlsx
+++ b/version_oct_2023/InitialValues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{28C6C791-891C-49C6-B485-EBA1BBBF38AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D298B66-2BA9-47A1-BBE6-2F9D7D43F56F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-25395" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>

--- a/version_oct_2023/InitialValues.xlsx
+++ b/version_oct_2023/InitialValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research RU/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{28C6C791-891C-49C6-B485-EBA1BBBF38AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D298B66-2BA9-47A1-BBE6-2F9D7D43F56F}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="13_ncr:1_{28C6C791-891C-49C6-B485-EBA1BBBF38AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29485C1B-279B-4311-B2B7-F8296AC60DD9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-25395" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -2529,7 +2529,7 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2617,6 +2617,8 @@
     <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3390,20 +3392,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3445,7 +3447,7 @@
       <c r="E2">
         <v>1.5238970518112183E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="71">
         <v>5.5619399063289165E-4</v>
       </c>
       <c r="G2" s="52" t="s">
@@ -3468,7 +3470,7 @@
       <c r="E3">
         <v>1.9190798997879028</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="71">
         <v>1.0046600103378296</v>
       </c>
       <c r="G3" s="52" t="s">
@@ -3491,7 +3493,7 @@
       <c r="E4">
         <v>107735697850368</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="71">
         <v>1300000014336</v>
       </c>
       <c r="G4" s="52" t="s">
@@ -3514,7 +3516,7 @@
       <c r="E5">
         <v>107735697850368</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="71">
         <v>1300000014336</v>
       </c>
       <c r="G5" s="52" t="s">
@@ -3537,7 +3539,7 @@
       <c r="E6">
         <v>3395457122304</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="71">
         <v>40000000000</v>
       </c>
       <c r="G6" s="52" t="s">
@@ -3560,7 +3562,7 @@
       <c r="E7">
         <v>0.65961617231369019</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="71">
         <v>0.28999999165534973</v>
       </c>
       <c r="G7" s="52" t="s">
@@ -3583,7 +3585,7 @@
       <c r="E8">
         <v>4474.57177734375</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="71">
         <v>6.5370001792907715</v>
       </c>
       <c r="G8" s="52" t="s">
@@ -3606,7 +3608,7 @@
       <c r="E9">
         <v>142536.859375</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="71">
         <v>0</v>
       </c>
       <c r="G9" s="52" t="s">
@@ -3629,7 +3631,7 @@
       <c r="E10">
         <v>19753836544</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="71">
         <v>1250679936</v>
       </c>
       <c r="G10" s="52" t="s">
@@ -3652,7 +3654,7 @@
       <c r="E11">
         <v>2170473216</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="71">
         <v>125068000</v>
       </c>
       <c r="G11" s="52" t="s">
@@ -3675,7 +3677,7 @@
       <c r="E12">
         <v>0.20905607938766499</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="71">
         <v>5.2000000141561031E-3</v>
       </c>
       <c r="G12" s="52" t="s">
@@ -3698,7 +3700,7 @@
       <c r="E13">
         <v>18.692829132080078</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="71">
         <v>0</v>
       </c>
       <c r="G13" s="52" t="s">
@@ -3721,7 +3723,7 @@
       <c r="E14">
         <v>0.94839990139007568</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="71">
         <v>0</v>
       </c>
       <c r="G14" s="52" t="s">
@@ -3744,7 +3746,7 @@
       <c r="E15" s="51">
         <v>59662.05078125</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="72">
         <v>375000</v>
       </c>
       <c r="G15" s="56" t="s">
@@ -3767,7 +3769,7 @@
       <c r="E16">
         <v>3191.5546875</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="71">
         <v>1.8702800273895264</v>
       </c>
       <c r="G16" s="52" t="s">
@@ -3790,7 +3792,7 @@
       <c r="E17">
         <v>75842.828125</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="71">
         <v>0</v>
       </c>
       <c r="G17" s="52" t="s">
@@ -3813,7 +3815,7 @@
       <c r="E18">
         <v>14067481600</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="71">
         <v>90816400</v>
       </c>
       <c r="G18" s="52" t="s">
@@ -3840,7 +3842,7 @@
       <c r="E19">
         <v>3708906240</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="71">
         <v>9081650</v>
       </c>
       <c r="G19" s="52" t="s">
@@ -3863,7 +3865,7 @@
       <c r="E20">
         <v>8.827664703130722E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="71">
         <v>2.0594099536538124E-2</v>
       </c>
       <c r="G20" s="52" t="s">
@@ -3886,7 +3888,7 @@
       <c r="E21">
         <v>9.100703239440918</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="71">
         <v>0</v>
       </c>
       <c r="G21" s="52" t="s">
@@ -3909,7 +3911,7 @@
       <c r="E22">
         <v>0.56097471714019775</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="71">
         <v>0</v>
       </c>
       <c r="G22" s="52" t="s">
@@ -3932,7 +3934,7 @@
       <c r="E23" s="51">
         <v>66863.4375</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="72">
         <v>325000</v>
       </c>
       <c r="G23" s="56" t="s">
@@ -3955,7 +3957,7 @@
       <c r="E24">
         <v>2582.429443359375</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="71">
         <v>191.40400695800781</v>
       </c>
       <c r="G24" s="52" t="s">
@@ -3978,7 +3980,7 @@
       <c r="E25">
         <v>6.8235672079026699E-3</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="71">
         <v>1.8853700021281838E-3</v>
       </c>
       <c r="G25" s="52" t="s">
@@ -4001,7 +4003,7 @@
       <c r="E26">
         <v>155715.171875</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="71">
         <v>37630</v>
       </c>
       <c r="G26" s="52" t="s">
@@ -4024,7 +4026,7 @@
       <c r="E27">
         <v>193878605824</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="71">
         <v>101518000128</v>
       </c>
       <c r="G27" s="52" t="s">
@@ -4047,7 +4049,7 @@
       <c r="E28">
         <v>38530240512</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="71">
         <v>10152099840</v>
       </c>
       <c r="G28" s="52" t="s">
@@ -5531,14 +5533,14 @@
       <selection activeCell="B2" sqref="B2:V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1" s="2">
         <v>1900</v>
       </c>
@@ -5675,7 +5677,7 @@
       </c>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>111</v>
       </c>
@@ -5791,7 +5793,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="19.5" thickBot="1">
+    <row r="6" spans="1:24" ht="18.600000000000001" thickBot="1">
       <c r="A6" s="42" t="s">
         <v>116</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>2463735.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1">
+    <row r="9" spans="1:24" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>111</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>2428035.75</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+    <row r="10" spans="1:24" ht="15" thickBot="1">
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -6159,7 +6161,7 @@
         <v>17262082</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
@@ -6227,12 +6229,12 @@
         <v>16330454</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="18.75">
+    <row r="16" spans="1:24" ht="18">
       <c r="A16" s="42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:22" ht="15" thickBot="1"/>
     <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
         <v>119</v>
@@ -6369,7 +6371,7 @@
         <v>108140</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1">
+    <row r="20" spans="1:22" ht="15" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -6437,10 +6439,10 @@
         <v>404150</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75">
+    <row r="21" spans="1:22" ht="15.6">
       <c r="A21" s="49"/>
     </row>
-    <row r="22" spans="1:22" ht="19.5" thickBot="1">
+    <row r="22" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="42" t="s">
         <v>214</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1">
+    <row r="25" spans="1:22" ht="15" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
@@ -6649,7 +6651,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="19.5" thickBot="1">
+    <row r="28" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="42" t="s">
         <v>216</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>121149.5653</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1">
+    <row r="31" spans="1:22" ht="15" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>111</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>455338.14309999999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="19.5" thickBot="1">
+    <row r="34" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="42" t="s">
         <v>318</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>17262082</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1">
+    <row r="37" spans="1:22" ht="15" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>111</v>
       </c>
@@ -7067,7 +7069,7 @@
         <v>16330454</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="19.5" thickBot="1">
+    <row r="39" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A39" s="42" t="s">
         <v>320</v>
       </c>
@@ -7296,27 +7298,27 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5546875" customWidth="1"/>
+    <col min="40" max="40" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5" thickBot="1">
+    <row r="1" spans="1:41" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>112</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1">
+    <row r="4" spans="1:41" ht="15" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:41" ht="15" thickBot="1"/>
     <row r="6" spans="1:41">
       <c r="A6" s="2">
         <v>1960</v>
@@ -7633,7 +7635,7 @@
         <v>591390.375</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1">
+    <row r="8" spans="1:41" ht="15" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>111</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>406745.5</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:41" ht="15" thickBot="1"/>
     <row r="10" spans="1:41">
       <c r="A10" s="2">
         <v>2016</v>
@@ -7940,7 +7942,7 @@
         <v>30920</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.75" thickBot="1">
+    <row r="12" spans="1:41" ht="15" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>111</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>141850</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="19.5" thickBot="1">
+    <row r="14" spans="1:41" ht="18.600000000000001" thickBot="1">
       <c r="A14" s="42" t="s">
         <v>114</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1">
+    <row r="17" spans="1:40" ht="15" thickBot="1">
       <c r="A17" s="20" t="s">
         <v>111</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:40" ht="15" thickBot="1"/>
     <row r="19" spans="1:40">
       <c r="A19" s="2">
         <v>1960</v>
@@ -8364,7 +8366,7 @@
         <v>495679.0625</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" thickBot="1">
+    <row r="21" spans="1:40" ht="15" thickBot="1">
       <c r="A21" s="20" t="s">
         <v>111</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>426500.21875</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:40" ht="15" thickBot="1"/>
     <row r="23" spans="1:40">
       <c r="A23" s="2">
         <v>2016</v>
@@ -8656,7 +8658,7 @@
         <v>27390</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" thickBot="1">
+    <row r="25" spans="1:40" ht="15" thickBot="1">
       <c r="A25" s="20" t="s">
         <v>111</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>125540</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19.5" thickBot="1">
+    <row r="27" spans="1:40" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="42" t="s">
         <v>115</v>
       </c>
@@ -8891,7 +8893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" thickBot="1">
+    <row r="30" spans="1:40" ht="15" thickBot="1">
       <c r="A30" s="20" t="s">
         <v>111</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:40" ht="15" thickBot="1"/>
     <row r="32" spans="1:40">
       <c r="A32" s="2">
         <v>1960</v>
@@ -9061,7 +9063,7 @@
         <v>97609.96875</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" thickBot="1">
+    <row r="34" spans="1:40" ht="15" thickBot="1">
       <c r="A34" s="20" t="s">
         <v>111</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>84032.796875</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="35" spans="1:40" ht="15" thickBot="1"/>
     <row r="36" spans="1:40">
       <c r="A36" s="2">
         <v>2016</v>
@@ -9340,7 +9342,7 @@
         <v>9460</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" thickBot="1">
+    <row r="38" spans="1:40" ht="15" thickBot="1">
       <c r="A38" s="20" t="s">
         <v>111</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>18130</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="19.5" thickBot="1">
+    <row r="40" spans="1:40" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="42" t="s">
         <v>215</v>
       </c>
@@ -9580,7 +9582,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" thickBot="1">
+    <row r="43" spans="1:40" ht="15" thickBot="1">
       <c r="A43" s="20" t="s">
         <v>111</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:40" ht="15" thickBot="1"/>
     <row r="45" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>114</v>
@@ -9761,7 +9763,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.75" thickBot="1">
+    <row r="47" spans="1:40" ht="15" thickBot="1">
       <c r="A47" s="20" t="s">
         <v>111</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.75" thickBot="1"/>
+    <row r="48" spans="1:40" ht="15" thickBot="1"/>
     <row r="49" spans="1:20">
       <c r="A49" s="2" t="s">
         <v>115</v>
@@ -9933,7 +9935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1">
       <c r="A51" s="20" t="s">
         <v>111</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>1.3702489365528359</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5" thickBot="1">
+    <row r="55" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A55" s="42" t="s">
         <v>217</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>49439.903539999999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1">
+    <row r="58" spans="1:20" ht="15" thickBot="1">
       <c r="A58" s="20" t="s">
         <v>111</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>205910.63190000001</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:20" ht="15" thickBot="1"/>
     <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
         <v>114</v>
@@ -10316,7 +10318,7 @@
         <v>32184.73475</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="20" t="s">
         <v>111</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>147647.965</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="63" spans="1:20" ht="15" thickBot="1"/>
     <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
         <v>115</v>
@@ -10488,7 +10490,7 @@
         <v>11521.985650000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1">
+    <row r="66" spans="1:20" ht="15" thickBot="1">
       <c r="A66" s="20" t="s">
         <v>111</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>22798.98849</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5" thickBot="1">
+    <row r="70" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A70" s="42" t="s">
         <v>319</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>3850857</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1">
+    <row r="73" spans="1:20" ht="15" thickBot="1">
       <c r="A73" s="20" t="s">
         <v>111</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>2626778.25</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:20" ht="15" thickBot="1"/>
     <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
         <v>114</v>
@@ -10855,7 +10857,7 @@
         <v>3745399.75</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1">
+    <row r="77" spans="1:20" ht="15" thickBot="1">
       <c r="A77" s="20" t="s">
         <v>111</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>2715952</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="78" spans="1:20" ht="15" thickBot="1"/>
     <row r="79" spans="1:20">
       <c r="A79" s="2" t="s">
         <v>115</v>
@@ -11027,7 +11029,7 @@
         <v>768252.25</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.75" thickBot="1">
+    <row r="81" spans="1:20" ht="15" thickBot="1">
       <c r="A81" s="20" t="s">
         <v>111</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>0.16760299625468164</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5" thickBot="1">
+    <row r="87" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A87" s="42" t="s">
         <v>364</v>
       </c>
@@ -11388,7 +11390,7 @@
         <v>356.26472350373734</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.75" thickBot="1">
+    <row r="90" spans="1:20" ht="15" thickBot="1">
       <c r="A90" s="20" t="s">
         <v>111</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>245.27455964295763</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="91" spans="1:20" ht="15" thickBot="1"/>
     <row r="92" spans="1:20">
       <c r="A92" s="2" t="s">
         <v>114</v>
@@ -11606,7 +11608,7 @@
         <v>301.45476604162388</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" thickBot="1">
+    <row r="94" spans="1:20" ht="15" thickBot="1">
       <c r="A94" s="20" t="s">
         <v>111</v>
       </c>
@@ -11683,7 +11685,7 @@
         <v>260.3472979450388</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="95" spans="1:20" ht="15" thickBot="1"/>
     <row r="96" spans="1:20">
       <c r="A96" s="2" t="s">
         <v>115</v>
@@ -11813,7 +11815,7 @@
         <v>60.29095320832478</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.75" thickBot="1">
+    <row r="98" spans="1:18" ht="15" thickBot="1">
       <c r="A98" s="20" t="s">
         <v>111</v>
       </c>
@@ -11902,60 +11904,60 @@
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" customWidth="1"/>
-    <col min="40" max="40" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75">
-      <c r="A1" s="71">
+    <row r="1" spans="1:38" ht="18">
+      <c r="A1" s="73">
         <v>1900</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="N1" s="71">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="N1" s="73">
         <v>1960</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="AA1" s="71">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="AA1" s="73">
         <v>2016</v>
       </c>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-    </row>
-    <row r="2" spans="1:38" ht="19.5" thickBot="1">
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+    </row>
+    <row r="2" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>120</v>
       </c>
@@ -12059,7 +12061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" thickBot="1">
+    <row r="3" spans="1:38" ht="15" thickBot="1">
       <c r="B3" t="s">
         <v>124</v>
       </c>
@@ -13864,7 +13866,7 @@
         <v>469095.03125</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="19.5" thickBot="1">
+    <row r="25" spans="1:38" ht="18.600000000000001" thickBot="1">
       <c r="A25" s="26" t="s">
         <v>126</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15.75" thickBot="1">
+    <row r="26" spans="1:38" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -15790,7 +15792,7 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -16685,11 +16687,11 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="9.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -17410,10 +17412,10 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="25"/>
+    <col min="21" max="21" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="26" spans="1:1">
@@ -17437,9 +17439,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102">
